--- a/Desarrollo/EPY/Análisis/EPY-CUS.xlsx
+++ b/Desarrollo/EPY/Análisis/EPY-CUS.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Hoja 2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="109">
   <si>
     <t>CU-001</t>
   </si>
@@ -155,9 +156,6 @@
   </si>
   <si>
     <t>Si los credenciales que ha introducido el usuario no son válidos,</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Si el usuario se dirige a otra sección de la plataforma antes de postear la pregunta,</t>
@@ -537,6 +535,39 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10629900" cy="5524500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,7 +770,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
@@ -1157,11 +1188,11 @@
       </c>
       <c r="N18" s="7"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="14" t="s">
+      <c r="Q18" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="R18" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="U18" s="7"/>
     </row>
@@ -1187,7 +1218,7 @@
         <v>38</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U19" s="7"/>
     </row>
@@ -1197,7 +1228,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="7"/>
       <c r="I20" s="11"/>
@@ -1205,7 +1236,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N20" s="7"/>
       <c r="P20" s="11"/>
@@ -1213,7 +1244,7 @@
         <v>42</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U20" s="7"/>
     </row>
@@ -1226,7 +1257,7 @@
         <v>44</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N21" s="7"/>
       <c r="P21" s="11"/>
@@ -1234,13 +1265,13 @@
         <v>44</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U21" s="7"/>
     </row>
     <row r="22">
       <c r="B22" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
@@ -1248,7 +1279,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="I22" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" s="22"/>
       <c r="K22" s="23"/>
@@ -1256,7 +1287,7 @@
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="P22" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="25"/>
       <c r="R22" s="23"/>
@@ -1266,30 +1297,30 @@
     </row>
     <row r="25">
       <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
       <c r="I25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="4"/>
       <c r="P25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -1301,21 +1332,21 @@
         <v>6</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="7"/>
       <c r="I26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N26" s="7"/>
       <c r="P26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U26" s="7"/>
     </row>
@@ -1324,21 +1355,21 @@
         <v>10</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="7"/>
       <c r="I27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N27" s="7"/>
       <c r="P27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U27" s="7"/>
     </row>
@@ -1380,7 +1411,7 @@
         <v>1.0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="7"/>
       <c r="I29" s="11"/>
@@ -1388,7 +1419,7 @@
         <v>1.0</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N29" s="7"/>
       <c r="P29" s="11"/>
@@ -1396,7 +1427,7 @@
         <v>1.0</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U29" s="7"/>
     </row>
@@ -1406,7 +1437,7 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" s="7"/>
       <c r="I30" s="11"/>
@@ -1414,7 +1445,7 @@
         <v>2.0</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N30" s="7"/>
       <c r="P30" s="11"/>
@@ -1422,7 +1453,7 @@
         <v>2.0</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U30" s="7"/>
     </row>
@@ -1432,7 +1463,7 @@
         <v>3.0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" s="7"/>
       <c r="I31" s="11"/>
@@ -1440,7 +1471,7 @@
         <v>3.0</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N31" s="7"/>
       <c r="P31" s="11"/>
@@ -1448,7 +1479,7 @@
         <v>3.0</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U31" s="7"/>
     </row>
@@ -1458,7 +1489,7 @@
         <v>4.0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" s="7"/>
       <c r="I32" s="11"/>
@@ -1466,7 +1497,7 @@
         <v>4.0</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N32" s="7"/>
       <c r="P32" s="11"/>
@@ -1474,7 +1505,7 @@
         <v>4.0</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U32" s="7"/>
     </row>
@@ -1492,7 +1523,7 @@
         <v>5.0</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U33" s="7"/>
     </row>
@@ -1571,21 +1602,21 @@
         <v>34</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="7"/>
       <c r="I39" s="5" t="s">
         <v>34</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N39" s="7"/>
       <c r="P39" s="5" t="s">
         <v>34</v>
       </c>
       <c r="Q39" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U39" s="7"/>
     </row>
@@ -1627,7 +1658,7 @@
         <v>3.0</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G41" s="7"/>
       <c r="I41" s="11"/>
@@ -1635,7 +1666,7 @@
         <v>3.0</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N41" s="7"/>
       <c r="P41" s="11"/>
@@ -1643,7 +1674,7 @@
         <v>6.0</v>
       </c>
       <c r="R41" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U41" s="7"/>
     </row>
@@ -1653,7 +1684,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G42" s="7"/>
       <c r="I42" s="11"/>
@@ -1661,7 +1692,7 @@
         <v>38</v>
       </c>
       <c r="L42" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N42" s="7"/>
       <c r="P42" s="11"/>
@@ -1669,7 +1700,7 @@
         <v>38</v>
       </c>
       <c r="S42" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U42" s="7"/>
     </row>
@@ -1679,7 +1710,7 @@
         <v>42</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" s="7"/>
       <c r="I43" s="11"/>
@@ -1687,7 +1718,7 @@
         <v>42</v>
       </c>
       <c r="L43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N43" s="7"/>
       <c r="P43" s="11"/>
@@ -1695,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U43" s="7"/>
     </row>
@@ -1705,7 +1736,7 @@
         <v>44</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44" s="7"/>
       <c r="I44" s="11"/>
@@ -1719,17 +1750,17 @@
     </row>
     <row r="45">
       <c r="B45" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="24"/>
       <c r="I45" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J45" s="25"/>
       <c r="K45" s="23"/>
@@ -1737,7 +1768,7 @@
       <c r="M45" s="23"/>
       <c r="N45" s="24"/>
       <c r="P45" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q45" s="22"/>
       <c r="R45" s="23"/>
@@ -1747,20 +1778,20 @@
     </row>
     <row r="48">
       <c r="B48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
       <c r="I48" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -1772,14 +1803,14 @@
         <v>6</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G49" s="7"/>
       <c r="I49" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N49" s="7"/>
     </row>
@@ -1788,14 +1819,14 @@
         <v>10</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G50" s="7"/>
       <c r="I50" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N50" s="7"/>
     </row>
@@ -1827,7 +1858,7 @@
         <v>1.0</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G52" s="7"/>
       <c r="I52" s="11"/>
@@ -1835,7 +1866,7 @@
         <v>1.0</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N52" s="7"/>
     </row>
@@ -1845,7 +1876,7 @@
         <v>2.0</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G53" s="7"/>
       <c r="I53" s="11"/>
@@ -1853,7 +1884,7 @@
         <v>2.0</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N53" s="7"/>
     </row>
@@ -1863,7 +1894,7 @@
         <v>3.0</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G54" s="7"/>
       <c r="I54" s="11"/>
@@ -1871,7 +1902,7 @@
         <v>3.0</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N54" s="7"/>
     </row>
@@ -1881,7 +1912,7 @@
         <v>4.0</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G55" s="7"/>
       <c r="I55" s="11"/>
@@ -1889,7 +1920,7 @@
         <v>4.0</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N55" s="7"/>
     </row>
@@ -1995,7 +2026,7 @@
         <v>3.0</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64" s="7"/>
       <c r="I64" s="11"/>
@@ -2003,7 +2034,7 @@
         <v>4.0</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N64" s="7"/>
     </row>
@@ -2013,7 +2044,7 @@
         <v>38</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G65" s="7"/>
       <c r="I65" s="11"/>
@@ -2031,7 +2062,7 @@
         <v>42</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G66" s="7"/>
       <c r="I66" s="11"/>
@@ -2039,7 +2070,7 @@
         <v>42</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N66" s="7"/>
     </row>
@@ -2049,7 +2080,7 @@
         <v>44</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G67" s="7"/>
       <c r="I67" s="11"/>
@@ -2059,7 +2090,7 @@
     </row>
     <row r="68">
       <c r="B68" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="23"/>
@@ -2067,7 +2098,7 @@
       <c r="F68" s="23"/>
       <c r="G68" s="24"/>
       <c r="I68" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J68" s="22"/>
       <c r="K68" s="23"/>
@@ -2272,4 +2303,18 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>